--- a/Data/Input/Input - Substitute Items.xlsx
+++ b/Data/Input/Input - Substitute Items.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\700024\Documents\UiPath\Projects\UiPath\SubstituteItems_Performer\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BAD19A-F251-4D2E-8173-98CC47A5F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFB68A-CDCA-4BE5-A1CA-AA0CC395B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="4020" windowWidth="17385" windowHeight="8100" xr2:uid="{33062A72-EDEB-411B-BB95-26D606DC0DFF}"/>
+    <workbookView xWindow="4800" yWindow="3405" windowWidth="18315" windowHeight="13050" activeTab="1" xr2:uid="{33062A72-EDEB-411B-BB95-26D606DC0DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitute Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Buyers List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Substitution Code</t>
   </si>
@@ -57,6 +58,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Buyers Code</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Z9</t>
+  </si>
+  <si>
+    <t>Z8</t>
+  </si>
+  <si>
+    <t>jose.ordonez@savemart.com</t>
   </si>
 </sst>
 </file>
@@ -88,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,16 +112,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EA421C-4AD6-47A2-B55D-A157262CBCDE}">
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7798,4 +7840,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD175048-6EB8-4CC0-8FDA-A9020E0741AD}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>93</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>87</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/Data/Input/Input - Substitute Items.xlsx
+++ b/Data/Input/Input - Substitute Items.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\700024\Documents\UiPath\Projects\UiPath\SubstituteItems_Performer\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFB68A-CDCA-4BE5-A1CA-AA0CC395B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861B823-5661-49A6-A758-AF42BDF79AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3405" windowWidth="18315" windowHeight="13050" activeTab="1" xr2:uid="{33062A72-EDEB-411B-BB95-26D606DC0DFF}"/>
+    <workbookView xWindow="29940" yWindow="4980" windowWidth="18315" windowHeight="13050" activeTab="1" xr2:uid="{33062A72-EDEB-411B-BB95-26D606DC0DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitute Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Buyers List" sheetId="2" r:id="rId2"/>
+    <sheet name="Buyers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,14 +140,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7847,7 +7844,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7913,7 +7910,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7921,7 +7918,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -7929,7 +7926,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -7937,7 +7934,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -7945,7 +7942,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>93</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -7953,7 +7950,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7961,7 +7958,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7969,7 +7966,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7977,7 +7974,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -7985,7 +7982,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>94</v>
       </c>
       <c r="B17" s="4" t="s">
